--- a/config_debug/task_buyu_challenge_server.xlsx
+++ b/config_debug/task_buyu_challenge_server.xlsx
@@ -19,12 +19,12 @@
     <sheet name="award_data" sheetId="4" r:id="rId5"/>
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="98">
   <si>
     <t>id|任务id</t>
   </si>
@@ -293,11 +293,11 @@
   </si>
   <si>
     <t>渔场2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>common</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>渔场5</t>
@@ -317,11 +317,11 @@
       </rPr>
       <t>_3d_target_yu</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>buyu_challenge_children_task</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -348,7 +348,7 @@
       </rPr>
       <t>_challenge_children_task</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -378,27 +378,27 @@
   </si>
   <si>
     <t>渔场3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>渔场3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>渔场4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>渔场4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>渔场5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>渔场5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -442,7 +442,7 @@
       </rPr>
       <t>uyu_3d_target_yu</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -473,26 +473,38 @@
   </si>
   <si>
     <t>fish_game_id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>base_fish_id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>gun_index</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -617,9 +629,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -628,10 +640,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -640,40 +652,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -953,7 +966,7 @@
   <dimension ref="A1:L181"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3660,7 +3673,7 @@
       <c r="F181" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -5023,7 +5036,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -5906,18 +5919,18 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I173" sqref="I173"/>
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J174" sqref="J174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6205,7 +6218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -6222,7 +6235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -6239,7 +6252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -6256,7 +6269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -6273,7 +6286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -6290,7 +6303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -6307,7 +6320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -6324,7 +6337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -6341,7 +6354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -6358,7 +6371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -6375,7 +6388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -6392,7 +6405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -6409,7 +6422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -6426,7 +6439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -6443,7 +6456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -6460,7 +6473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -6475,6 +6488,9 @@
       </c>
       <c r="E32" s="1">
         <v>2</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -7239,7 +7255,7 @@
         <v>95</v>
       </c>
       <c r="D75" s="16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E75" s="16">
         <v>2</v>
@@ -7293,7 +7309,7 @@
         <v>95</v>
       </c>
       <c r="D78" s="16">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E78" s="16">
         <v>2</v>
@@ -7347,7 +7363,7 @@
         <v>95</v>
       </c>
       <c r="D81" s="16">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16">
         <v>2</v>
@@ -7401,7 +7417,7 @@
         <v>95</v>
       </c>
       <c r="D84" s="16">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E84" s="16">
         <v>2</v>
@@ -7455,7 +7471,7 @@
         <v>95</v>
       </c>
       <c r="D87" s="16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E87" s="16">
         <v>2</v>
@@ -7509,7 +7525,7 @@
         <v>95</v>
       </c>
       <c r="D90" s="16">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E90" s="16">
         <v>2</v>
@@ -7563,7 +7579,7 @@
         <v>95</v>
       </c>
       <c r="D93" s="16">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E93" s="16">
         <v>2</v>
@@ -7617,7 +7633,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="16">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E96" s="16">
         <v>2</v>
@@ -7671,7 +7687,7 @@
         <v>95</v>
       </c>
       <c r="D99" s="16">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E99" s="16">
         <v>2</v>
@@ -7725,7 +7741,7 @@
         <v>95</v>
       </c>
       <c r="D102" s="16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E102" s="16">
         <v>2</v>
@@ -7779,7 +7795,7 @@
         <v>95</v>
       </c>
       <c r="D105" s="16">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E105" s="16">
         <v>2</v>
@@ -7833,7 +7849,7 @@
         <v>95</v>
       </c>
       <c r="D108" s="16">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E108" s="16">
         <v>2</v>
@@ -7887,7 +7903,7 @@
         <v>95</v>
       </c>
       <c r="D111" s="16">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E111" s="16">
         <v>2</v>
@@ -7939,7 +7955,7 @@
         <v>95</v>
       </c>
       <c r="D114" s="16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E114" s="16">
         <v>2</v>
@@ -7990,7 +8006,7 @@
         <v>95</v>
       </c>
       <c r="D117" s="16">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E117" s="16">
         <v>2</v>
@@ -8041,7 +8057,7 @@
         <v>95</v>
       </c>
       <c r="D120" s="16">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E120" s="16">
         <v>2</v>
@@ -8092,7 +8108,7 @@
         <v>95</v>
       </c>
       <c r="D123" s="16">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E123" s="16">
         <v>2</v>
@@ -8143,7 +8159,7 @@
         <v>95</v>
       </c>
       <c r="D126" s="16">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E126" s="16">
         <v>2</v>
@@ -8194,7 +8210,7 @@
         <v>95</v>
       </c>
       <c r="D129" s="16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E129" s="16">
         <v>2</v>
@@ -8245,7 +8261,7 @@
         <v>95</v>
       </c>
       <c r="D132" s="16">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E132" s="16">
         <v>2</v>
@@ -8296,7 +8312,7 @@
         <v>95</v>
       </c>
       <c r="D135" s="16">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E135" s="16">
         <v>2</v>
@@ -8347,7 +8363,7 @@
         <v>95</v>
       </c>
       <c r="D138" s="16">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E138" s="16">
         <v>2</v>
@@ -8398,7 +8414,7 @@
         <v>95</v>
       </c>
       <c r="D141" s="16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E141" s="16">
         <v>2</v>
@@ -8449,7 +8465,7 @@
         <v>95</v>
       </c>
       <c r="D144" s="16">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E144" s="16">
         <v>2</v>
@@ -8500,7 +8516,7 @@
         <v>95</v>
       </c>
       <c r="D147" s="16">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E147" s="16">
         <v>2</v>
@@ -8551,7 +8567,7 @@
         <v>95</v>
       </c>
       <c r="D150" s="16">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E150" s="16">
         <v>2</v>
@@ -8602,7 +8618,7 @@
         <v>95</v>
       </c>
       <c r="D153" s="16">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E153" s="16">
         <v>2</v>
@@ -8653,7 +8669,7 @@
         <v>95</v>
       </c>
       <c r="D156" s="16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E156" s="16">
         <v>2</v>
@@ -8704,7 +8720,7 @@
         <v>95</v>
       </c>
       <c r="D159" s="16">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E159" s="16">
         <v>2</v>
@@ -8755,7 +8771,7 @@
         <v>95</v>
       </c>
       <c r="D162" s="16">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E162" s="16">
         <v>2</v>
@@ -8806,7 +8822,7 @@
         <v>95</v>
       </c>
       <c r="D165" s="16">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E165" s="16">
         <v>2</v>
@@ -8857,7 +8873,7 @@
         <v>95</v>
       </c>
       <c r="D168" s="16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E168" s="16">
         <v>2</v>
@@ -8908,7 +8924,7 @@
         <v>95</v>
       </c>
       <c r="D171" s="16">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E171" s="16">
         <v>2</v>
@@ -8959,7 +8975,7 @@
         <v>95</v>
       </c>
       <c r="D174" s="16">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E174" s="16">
         <v>2</v>
@@ -9010,7 +9026,7 @@
         <v>95</v>
       </c>
       <c r="D177" s="16">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E177" s="16">
         <v>2</v>
@@ -9061,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="D180" s="16">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E180" s="16">
         <v>2</v>
@@ -9085,7 +9101,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
@@ -9321,7 +9337,7 @@
       <c r="D111" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -9494,7 +9510,7 @@
       <c r="B29" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
